--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Plxnb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>12.4830852247114</v>
+        <v>6.686327333333334</v>
       </c>
       <c r="H2">
-        <v>12.4830852247114</v>
+        <v>20.058982</v>
       </c>
       <c r="I2">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644473</v>
       </c>
       <c r="J2">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644472</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.620476339262808</v>
+        <v>0.8080803333333334</v>
       </c>
       <c r="N2">
-        <v>0.620476339262808</v>
+        <v>2.424241</v>
       </c>
       <c r="O2">
-        <v>0.1116112080981533</v>
+        <v>0.1201613829001973</v>
       </c>
       <c r="P2">
-        <v>0.1116112080981533</v>
+        <v>0.1201613829001973</v>
       </c>
       <c r="Q2">
-        <v>7.745459022934576</v>
+        <v>5.403089620295779</v>
       </c>
       <c r="R2">
-        <v>7.745459022934576</v>
+        <v>48.627806582662</v>
       </c>
       <c r="S2">
-        <v>0.04896386686489741</v>
+        <v>0.02120246285079631</v>
       </c>
       <c r="T2">
-        <v>0.04896386686489741</v>
+        <v>0.02120246285079631</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>12.4830852247114</v>
+        <v>6.686327333333334</v>
       </c>
       <c r="H3">
-        <v>12.4830852247114</v>
+        <v>20.058982</v>
       </c>
       <c r="I3">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644473</v>
       </c>
       <c r="J3">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644472</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.20321417300677</v>
+        <v>1.229617666666667</v>
       </c>
       <c r="N3">
-        <v>1.20321417300677</v>
+        <v>3.688853</v>
       </c>
       <c r="O3">
-        <v>0.2164340184343846</v>
+        <v>0.1828438995114518</v>
       </c>
       <c r="P3">
-        <v>0.2164340184343846</v>
+        <v>0.1828438995114518</v>
       </c>
       <c r="Q3">
-        <v>15.01982506522416</v>
+        <v>8.221626214182889</v>
       </c>
       <c r="R3">
-        <v>15.01982506522416</v>
+        <v>73.994635927646</v>
       </c>
       <c r="S3">
-        <v>0.09494966181475552</v>
+        <v>0.03226278604088807</v>
       </c>
       <c r="T3">
-        <v>0.09494966181475552</v>
+        <v>0.03226278604088806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>12.4830852247114</v>
+        <v>6.686327333333334</v>
       </c>
       <c r="H4">
-        <v>12.4830852247114</v>
+        <v>20.058982</v>
       </c>
       <c r="I4">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644473</v>
       </c>
       <c r="J4">
-        <v>0.4387002676454996</v>
+        <v>0.1764498904644472</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.73557499372824</v>
+        <v>0.07532033333333334</v>
       </c>
       <c r="N4">
-        <v>3.73557499372824</v>
+        <v>0.225961</v>
       </c>
       <c r="O4">
-        <v>0.6719547734674621</v>
+        <v>0.01120011840469304</v>
       </c>
       <c r="P4">
-        <v>0.6719547734674621</v>
+        <v>0.01120011840469305</v>
       </c>
       <c r="Q4">
-        <v>46.63150101001037</v>
+        <v>0.5036164035224445</v>
       </c>
       <c r="R4">
-        <v>46.63150101001037</v>
+        <v>4.532547631702</v>
       </c>
       <c r="S4">
-        <v>0.2947867389658467</v>
+        <v>0.001976259665696927</v>
       </c>
       <c r="T4">
-        <v>0.2947867389658467</v>
+        <v>0.001976259665696927</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>12.4156909928759</v>
+        <v>6.686327333333334</v>
       </c>
       <c r="H5">
-        <v>12.4156909928759</v>
+        <v>20.058982</v>
       </c>
       <c r="I5">
-        <v>0.4363317932650261</v>
+        <v>0.1764498904644473</v>
       </c>
       <c r="J5">
-        <v>0.4363317932650261</v>
+        <v>0.1764498904644472</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.620476339262808</v>
+        <v>4.611940333333333</v>
       </c>
       <c r="N5">
-        <v>0.620476339262808</v>
+        <v>13.835821</v>
       </c>
       <c r="O5">
-        <v>0.1116112080981533</v>
+        <v>0.6857945991836579</v>
       </c>
       <c r="P5">
-        <v>0.1116112080981533</v>
+        <v>0.6857945991836579</v>
       </c>
       <c r="Q5">
-        <v>7.703642496677856</v>
+        <v>30.83694271046911</v>
       </c>
       <c r="R5">
-        <v>7.703642496677856</v>
+        <v>277.532484394222</v>
       </c>
       <c r="S5">
-        <v>0.04869951857794323</v>
+        <v>0.1210083819070659</v>
       </c>
       <c r="T5">
-        <v>0.04869951857794323</v>
+        <v>0.1210083819070659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.4156909928759</v>
+        <v>13.37868633333333</v>
       </c>
       <c r="H6">
-        <v>12.4156909928759</v>
+        <v>40.136059</v>
       </c>
       <c r="I6">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="J6">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.20321417300677</v>
+        <v>0.8080803333333334</v>
       </c>
       <c r="N6">
-        <v>1.20321417300677</v>
+        <v>2.424241</v>
       </c>
       <c r="O6">
-        <v>0.2164340184343846</v>
+        <v>0.1201613829001973</v>
       </c>
       <c r="P6">
-        <v>0.2164340184343846</v>
+        <v>0.1201613829001973</v>
       </c>
       <c r="Q6">
-        <v>14.93873537030078</v>
+        <v>10.81105331180211</v>
       </c>
       <c r="R6">
-        <v>14.93873537030078</v>
+        <v>97.29947980621903</v>
       </c>
       <c r="S6">
-        <v>0.09443704338703074</v>
+        <v>0.04242405222383015</v>
       </c>
       <c r="T6">
-        <v>0.09443704338703074</v>
+        <v>0.04242405222383016</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.4156909928759</v>
+        <v>13.37868633333333</v>
       </c>
       <c r="H7">
-        <v>12.4156909928759</v>
+        <v>40.136059</v>
       </c>
       <c r="I7">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="J7">
-        <v>0.4363317932650261</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.73557499372824</v>
+        <v>1.229617666666667</v>
       </c>
       <c r="N7">
-        <v>3.73557499372824</v>
+        <v>3.688853</v>
       </c>
       <c r="O7">
-        <v>0.6719547734674621</v>
+        <v>0.1828438995114518</v>
       </c>
       <c r="P7">
-        <v>0.6719547734674621</v>
+        <v>0.1828438995114518</v>
       </c>
       <c r="Q7">
-        <v>46.37974480284416</v>
+        <v>16.45066907225856</v>
       </c>
       <c r="R7">
-        <v>46.37974480284416</v>
+        <v>148.056021650327</v>
       </c>
       <c r="S7">
-        <v>0.2931952313000521</v>
+        <v>0.06455467600706057</v>
       </c>
       <c r="T7">
-        <v>0.2931952313000521</v>
+        <v>0.06455467600706057</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.55592542120587</v>
+        <v>13.37868633333333</v>
       </c>
       <c r="H8">
-        <v>3.55592542120587</v>
+        <v>40.136059</v>
       </c>
       <c r="I8">
-        <v>0.1249679390894743</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="J8">
-        <v>0.1249679390894743</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.620476339262808</v>
+        <v>0.07532033333333334</v>
       </c>
       <c r="N8">
-        <v>0.620476339262808</v>
+        <v>0.225961</v>
       </c>
       <c r="O8">
-        <v>0.1116112080981533</v>
+        <v>0.01120011840469304</v>
       </c>
       <c r="P8">
-        <v>0.1116112080981533</v>
+        <v>0.01120011840469305</v>
       </c>
       <c r="Q8">
-        <v>2.206367588041377</v>
+        <v>1.007687114188778</v>
       </c>
       <c r="R8">
-        <v>2.206367588041377</v>
+        <v>9.069184027699</v>
       </c>
       <c r="S8">
-        <v>0.01394782265531267</v>
+        <v>0.003954302094778895</v>
       </c>
       <c r="T8">
-        <v>0.01394782265531267</v>
+        <v>0.003954302094778895</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.55592542120587</v>
+        <v>13.37868633333333</v>
       </c>
       <c r="H9">
-        <v>3.55592542120587</v>
+        <v>40.136059</v>
       </c>
       <c r="I9">
-        <v>0.1249679390894743</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="J9">
-        <v>0.1249679390894743</v>
+        <v>0.353058954548371</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.20321417300677</v>
+        <v>4.611940333333333</v>
       </c>
       <c r="N9">
-        <v>1.20321417300677</v>
+        <v>13.835821</v>
       </c>
       <c r="O9">
-        <v>0.2164340184343846</v>
+        <v>0.6857945991836579</v>
       </c>
       <c r="P9">
-        <v>0.2164340184343846</v>
+        <v>0.6857945991836579</v>
       </c>
       <c r="Q9">
-        <v>4.278539864949972</v>
+        <v>61.70170310771545</v>
       </c>
       <c r="R9">
-        <v>4.278539864949972</v>
+        <v>555.3153279694391</v>
       </c>
       <c r="S9">
-        <v>0.02704731323259834</v>
+        <v>0.2421259242227014</v>
       </c>
       <c r="T9">
-        <v>0.02704731323259834</v>
+        <v>0.2421259242227014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>13.62475033333333</v>
+      </c>
+      <c r="H10">
+        <v>40.874251</v>
+      </c>
+      <c r="I10">
+        <v>0.3595524993125934</v>
+      </c>
+      <c r="J10">
+        <v>0.3595524993125934</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8080803333333334</v>
+      </c>
+      <c r="N10">
+        <v>2.424241</v>
+      </c>
+      <c r="O10">
+        <v>0.1201613829001973</v>
+      </c>
+      <c r="P10">
+        <v>0.1201613829001973</v>
+      </c>
+      <c r="Q10">
+        <v>11.00989279094344</v>
+      </c>
+      <c r="R10">
+        <v>99.08903511849101</v>
+      </c>
+      <c r="S10">
+        <v>0.04320432554262344</v>
+      </c>
+      <c r="T10">
+        <v>0.04320432554262345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>13.62475033333333</v>
+      </c>
+      <c r="H11">
+        <v>40.874251</v>
+      </c>
+      <c r="I11">
+        <v>0.3595524993125934</v>
+      </c>
+      <c r="J11">
+        <v>0.3595524993125934</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.229617666666667</v>
+      </c>
+      <c r="N11">
+        <v>3.688853</v>
+      </c>
+      <c r="O11">
+        <v>0.1828438995114518</v>
+      </c>
+      <c r="P11">
+        <v>0.1828438995114518</v>
+      </c>
+      <c r="Q11">
+        <v>16.75323371378922</v>
+      </c>
+      <c r="R11">
+        <v>150.779103424103</v>
+      </c>
+      <c r="S11">
+        <v>0.06574198105340315</v>
+      </c>
+      <c r="T11">
+        <v>0.06574198105340315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>13.62475033333333</v>
+      </c>
+      <c r="H12">
+        <v>40.874251</v>
+      </c>
+      <c r="I12">
+        <v>0.3595524993125934</v>
+      </c>
+      <c r="J12">
+        <v>0.3595524993125934</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.07532033333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.225961</v>
+      </c>
+      <c r="O12">
+        <v>0.01120011840469304</v>
+      </c>
+      <c r="P12">
+        <v>0.01120011840469305</v>
+      </c>
+      <c r="Q12">
+        <v>1.026220736690111</v>
+      </c>
+      <c r="R12">
+        <v>9.235986630211</v>
+      </c>
+      <c r="S12">
+        <v>0.00402703056500436</v>
+      </c>
+      <c r="T12">
+        <v>0.004027030565004361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>13.62475033333333</v>
+      </c>
+      <c r="H13">
+        <v>40.874251</v>
+      </c>
+      <c r="I13">
+        <v>0.3595524993125934</v>
+      </c>
+      <c r="J13">
+        <v>0.3595524993125934</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.611940333333333</v>
+      </c>
+      <c r="N13">
+        <v>13.835821</v>
+      </c>
+      <c r="O13">
+        <v>0.6857945991836579</v>
+      </c>
+      <c r="P13">
+        <v>0.6857945991836579</v>
+      </c>
+      <c r="Q13">
+        <v>62.83653559389678</v>
+      </c>
+      <c r="R13">
+        <v>565.528820345071</v>
+      </c>
+      <c r="S13">
+        <v>0.2465791621515624</v>
+      </c>
+      <c r="T13">
+        <v>0.2465791621515624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.203868666666668</v>
+      </c>
+      <c r="H14">
+        <v>12.611606</v>
+      </c>
+      <c r="I14">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="J14">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.8080803333333334</v>
+      </c>
+      <c r="N14">
+        <v>2.424241</v>
+      </c>
+      <c r="O14">
+        <v>0.1201613829001973</v>
+      </c>
+      <c r="P14">
+        <v>0.1201613829001973</v>
+      </c>
+      <c r="Q14">
+        <v>3.397063593449557</v>
+      </c>
+      <c r="R14">
+        <v>30.57357234104601</v>
+      </c>
+      <c r="S14">
+        <v>0.01333054228294735</v>
+      </c>
+      <c r="T14">
+        <v>0.01333054228294736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.203868666666668</v>
+      </c>
+      <c r="H15">
+        <v>12.611606</v>
+      </c>
+      <c r="I15">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="J15">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.229617666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.688853</v>
+      </c>
+      <c r="O15">
+        <v>0.1828438995114518</v>
+      </c>
+      <c r="P15">
+        <v>0.1828438995114518</v>
+      </c>
+      <c r="Q15">
+        <v>5.169151180879779</v>
+      </c>
+      <c r="R15">
+        <v>46.522360627918</v>
+      </c>
+      <c r="S15">
+        <v>0.02028445641009998</v>
+      </c>
+      <c r="T15">
+        <v>0.02028445641009998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.55592542120587</v>
-      </c>
-      <c r="H10">
-        <v>3.55592542120587</v>
-      </c>
-      <c r="I10">
-        <v>0.1249679390894743</v>
-      </c>
-      <c r="J10">
-        <v>0.1249679390894743</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.73557499372824</v>
-      </c>
-      <c r="N10">
-        <v>3.73557499372824</v>
-      </c>
-      <c r="O10">
-        <v>0.6719547734674621</v>
-      </c>
-      <c r="P10">
-        <v>0.6719547734674621</v>
-      </c>
-      <c r="Q10">
-        <v>13.28342608301921</v>
-      </c>
-      <c r="R10">
-        <v>13.28342608301921</v>
-      </c>
-      <c r="S10">
-        <v>0.08397280320156332</v>
-      </c>
-      <c r="T10">
-        <v>0.08397280320156332</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.203868666666668</v>
+      </c>
+      <c r="H16">
+        <v>12.611606</v>
+      </c>
+      <c r="I16">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="J16">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07532033333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.225961</v>
+      </c>
+      <c r="O16">
+        <v>0.01120011840469304</v>
+      </c>
+      <c r="P16">
+        <v>0.01120011840469305</v>
+      </c>
+      <c r="Q16">
+        <v>0.316636789262889</v>
+      </c>
+      <c r="R16">
+        <v>2.849731103366</v>
+      </c>
+      <c r="S16">
+        <v>0.001242526079212862</v>
+      </c>
+      <c r="T16">
+        <v>0.001242526079212862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.203868666666668</v>
+      </c>
+      <c r="H17">
+        <v>12.611606</v>
+      </c>
+      <c r="I17">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="J17">
+        <v>0.1109386556745884</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.611940333333333</v>
+      </c>
+      <c r="N17">
+        <v>13.835821</v>
+      </c>
+      <c r="O17">
+        <v>0.6857945991836579</v>
+      </c>
+      <c r="P17">
+        <v>0.6857945991836579</v>
+      </c>
+      <c r="Q17">
+        <v>19.38799145983623</v>
+      </c>
+      <c r="R17">
+        <v>174.491923138526</v>
+      </c>
+      <c r="S17">
+        <v>0.07608113090232817</v>
+      </c>
+      <c r="T17">
+        <v>0.07608113090232815</v>
       </c>
     </row>
   </sheetData>
